--- a/data/Model_Summary.xlsx
+++ b/data/Model_Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mehul Bhargava\capstone\capstone-project-aafc-crop-yield-project-capstone-team\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{700A26D5-56FB-4453-BA05-E6839CD8F32D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E16D5518-8CEE-4DC1-A514-B73C7E18BFE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{FA4242B8-2E13-4444-9E26-0AA0F8D57BC1}"/>
   </bookViews>
@@ -36,9 +36,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="14">
   <si>
     <t>Ecodistrict ID</t>
-  </si>
-  <si>
-    <t># Townships</t>
   </si>
   <si>
     <t>MSE Test</t>
@@ -75,6 +72,9 @@
   </si>
   <si>
     <t>RIDGE Reg.</t>
+  </si>
+  <si>
+    <t># Records</t>
   </si>
 </sst>
 </file>
@@ -511,8 +511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6EEB33F-AB28-974E-97DF-FFAD0D4A356C}">
   <dimension ref="B3:K45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="J46" sqref="J46"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="15.6"/>
@@ -530,33 +530,33 @@
   <sheetData>
     <row r="3" spans="2:10" ht="18">
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="18">
       <c r="B5" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="F5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="G5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="9" t="s">
+      <c r="H5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="I5" s="9" t="s">
         <v>4</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>5</v>
       </c>
       <c r="J5" s="12"/>
     </row>
@@ -835,7 +835,7 @@
     </row>
     <row r="18" spans="2:11" ht="18">
       <c r="B18" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="2:11" ht="18">
@@ -843,31 +843,31 @@
         <v>0</v>
       </c>
       <c r="C20" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="F20" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="G20" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="H20" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="K20" s="9" t="s">
         <v>8</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="H20" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="I20" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="J20" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="K20" s="9" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="21" spans="2:11">
@@ -1192,33 +1192,33 @@
     </row>
     <row r="33" spans="2:9" ht="18">
       <c r="B33" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="2:9" ht="18">
       <c r="B35" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C35" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D35" s="9" t="s">
+      <c r="F35" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E35" s="9" t="s">
+      <c r="G35" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F35" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G35" s="9" t="s">
+      <c r="H35" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H35" s="9" t="s">
+      <c r="I35" s="9" t="s">
         <v>4</v>
-      </c>
-      <c r="I35" s="9" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="36" spans="2:9">

--- a/data/Model_Summary.xlsx
+++ b/data/Model_Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mehul Bhargava\capstone\capstone-project-aafc-crop-yield-project-capstone-team\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E16D5518-8CEE-4DC1-A514-B73C7E18BFE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D014A1A7-BE85-48B9-8D38-DA4BD4DB7DE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{FA4242B8-2E13-4444-9E26-0AA0F8D57BC1}"/>
   </bookViews>
@@ -511,8 +511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6EEB33F-AB28-974E-97DF-FFAD0D4A356C}">
   <dimension ref="B3:K45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="I45" sqref="I45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="15.6"/>
@@ -1229,22 +1229,22 @@
         <v>1199</v>
       </c>
       <c r="D36" s="4">
-        <v>76.12</v>
+        <v>76.19</v>
       </c>
       <c r="E36" s="4">
-        <v>86.37</v>
+        <v>87.9</v>
       </c>
       <c r="F36" s="4">
-        <v>84.74</v>
+        <v>84.72</v>
       </c>
       <c r="G36" s="4">
-        <v>81.44</v>
+        <v>80.78</v>
       </c>
       <c r="H36" s="4">
-        <v>67.78</v>
+        <v>69.98</v>
       </c>
       <c r="I36" s="4">
-        <v>90.2</v>
+        <v>90.11</v>
       </c>
     </row>
     <row r="37" spans="2:9">
@@ -1255,22 +1255,22 @@
         <v>1177</v>
       </c>
       <c r="D37" s="5">
-        <v>100.62</v>
+        <v>101.09</v>
       </c>
       <c r="E37" s="5">
-        <v>105.4</v>
+        <v>105.57</v>
       </c>
       <c r="F37" s="4">
-        <v>75.819999999999993</v>
+        <v>75.599999999999994</v>
       </c>
       <c r="G37" s="5">
-        <v>73.66</v>
+        <v>73.569999999999993</v>
       </c>
       <c r="H37" s="5">
-        <v>83.48</v>
+        <v>82.97</v>
       </c>
       <c r="I37" s="5">
-        <v>86.85</v>
+        <v>87.34</v>
       </c>
     </row>
     <row r="38" spans="2:9">
@@ -1281,22 +1281,22 @@
         <v>1111</v>
       </c>
       <c r="D38" s="5">
-        <v>79.650000000000006</v>
+        <v>78.66</v>
       </c>
       <c r="E38" s="5">
-        <v>98.5</v>
+        <v>92.89</v>
       </c>
       <c r="F38" s="5">
-        <v>86.19</v>
+        <v>86.53</v>
       </c>
       <c r="G38" s="5">
-        <v>75.099999999999994</v>
+        <v>77.86</v>
       </c>
       <c r="H38" s="5">
-        <v>71.180000000000007</v>
+        <v>71.959999999999994</v>
       </c>
       <c r="I38" s="5">
-        <v>90.05</v>
+        <v>90.07</v>
       </c>
     </row>
     <row r="39" spans="2:9">
@@ -1307,22 +1307,22 @@
         <v>1100</v>
       </c>
       <c r="D39" s="5">
-        <v>74.319999999999993</v>
+        <v>74.3</v>
       </c>
       <c r="E39" s="5">
-        <v>83.18</v>
+        <v>83.6</v>
       </c>
       <c r="F39" s="5">
         <v>89.21</v>
       </c>
       <c r="G39" s="5">
-        <v>87.54</v>
+        <v>87.42</v>
       </c>
       <c r="H39" s="5">
-        <v>62.79</v>
+        <v>64.349999999999994</v>
       </c>
       <c r="I39" s="5">
-        <v>92.02</v>
+        <v>91.73</v>
       </c>
     </row>
     <row r="40" spans="2:9">
@@ -1333,22 +1333,22 @@
         <v>1067</v>
       </c>
       <c r="D40" s="4">
-        <v>103.94</v>
+        <v>108.8</v>
       </c>
       <c r="E40" s="4">
-        <v>122.08</v>
+        <v>125.33</v>
       </c>
       <c r="F40" s="4">
-        <v>73.959999999999994</v>
+        <v>71.47</v>
       </c>
       <c r="G40" s="4">
-        <v>62.35</v>
+        <v>60.32</v>
       </c>
       <c r="H40" s="4">
-        <v>92.36</v>
+        <v>93.87</v>
       </c>
       <c r="I40" s="4">
-        <v>87.56</v>
+        <v>87.32</v>
       </c>
     </row>
     <row r="41" spans="2:9">
@@ -1359,22 +1359,22 @@
         <v>1012</v>
       </c>
       <c r="D41" s="4">
-        <v>91.4</v>
+        <v>95.13</v>
       </c>
       <c r="E41" s="4">
-        <v>115.64</v>
+        <v>107.29</v>
       </c>
       <c r="F41" s="4">
-        <v>80.180000000000007</v>
+        <v>78.53</v>
       </c>
       <c r="G41" s="4">
-        <v>67.72</v>
+        <v>72.22</v>
       </c>
       <c r="H41" s="4">
-        <v>84.33</v>
+        <v>81.67</v>
       </c>
       <c r="I41" s="4">
-        <v>89.4</v>
+        <v>89.82</v>
       </c>
     </row>
     <row r="42" spans="2:9">
@@ -1385,22 +1385,22 @@
         <v>1001</v>
       </c>
       <c r="D42" s="4">
-        <v>77.12</v>
+        <v>78.540000000000006</v>
       </c>
       <c r="E42" s="4">
-        <v>100.43</v>
+        <v>95.63</v>
       </c>
       <c r="F42" s="4">
-        <v>91.06</v>
+        <v>90.73</v>
       </c>
       <c r="G42" s="4">
-        <v>84.52</v>
+        <v>85.97</v>
       </c>
       <c r="H42" s="4">
-        <v>75.72</v>
+        <v>71.92</v>
       </c>
       <c r="I42" s="4">
-        <v>89.52</v>
+        <v>89.99</v>
       </c>
     </row>
     <row r="43" spans="2:9">
@@ -1411,22 +1411,22 @@
         <v>946</v>
       </c>
       <c r="D43" s="4">
-        <v>71.16</v>
+        <v>71.19</v>
       </c>
       <c r="E43" s="4">
-        <v>96</v>
+        <v>98.91</v>
       </c>
       <c r="F43" s="4">
-        <v>81.93</v>
+        <v>81.91</v>
       </c>
       <c r="G43" s="4">
-        <v>69.66</v>
+        <v>67.790000000000006</v>
       </c>
       <c r="H43" s="4">
-        <v>73.87</v>
+        <v>75.36</v>
       </c>
       <c r="I43" s="4">
-        <v>91.65</v>
+        <v>91.5</v>
       </c>
     </row>
     <row r="44" spans="2:9">
@@ -1437,22 +1437,22 @@
         <v>946</v>
       </c>
       <c r="D44" s="4">
-        <v>54.33</v>
+        <v>58.01</v>
       </c>
       <c r="E44" s="4">
-        <v>72.53</v>
+        <v>70.31</v>
       </c>
       <c r="F44" s="4">
-        <v>90.49</v>
+        <v>89.16</v>
       </c>
       <c r="G44" s="4">
-        <v>83.3</v>
+        <v>84.31</v>
       </c>
       <c r="H44" s="4">
-        <v>58.18</v>
+        <v>56.12</v>
       </c>
       <c r="I44" s="4">
-        <v>93.09</v>
+        <v>93.31</v>
       </c>
     </row>
     <row r="45" spans="2:9">
@@ -1463,19 +1463,19 @@
         <v>913</v>
       </c>
       <c r="D45" s="4">
-        <v>80.069999999999993</v>
+        <v>84.45</v>
       </c>
       <c r="E45" s="4">
-        <v>105.62</v>
+        <v>104.67</v>
       </c>
       <c r="F45" s="4">
-        <v>89.12</v>
+        <v>87.89</v>
       </c>
       <c r="G45" s="4">
-        <v>81.95</v>
+        <v>82.28</v>
       </c>
       <c r="H45" s="4">
-        <v>81.540000000000006</v>
+        <v>80.430000000000007</v>
       </c>
       <c r="I45" s="4">
         <v>90.28</v>
